--- a/tests/Gauges/tLists4_complexRange.xlsx
+++ b/tests/Gauges/tLists4_complexRange.xlsx
@@ -129,7 +129,6 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -137,20 +136,17 @@
       <x:color indexed="16"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -197,7 +193,6 @@
       <x:color indexed="55"/>
       <x:name val="Webdings"/>
       <x:family val="1"/>
-      <x:charset val="2"/>
     </x:font>
     <x:font>
       <x:i/>
@@ -210,7 +205,6 @@
       <x:color indexed="54"/>
       <x:name val="Webdings"/>
       <x:family val="1"/>
-      <x:charset val="2"/>
     </x:font>
     <x:font>
       <x:sz val="8"/>
@@ -230,7 +224,6 @@
       <x:sz val="7"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
